--- a/devNotes/mockUps.xlsx
+++ b/devNotes/mockUps.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="30" windowWidth="19095" windowHeight="12015" tabRatio="245"/>
+    <workbookView xWindow="120" yWindow="30" windowWidth="19095" windowHeight="12015" tabRatio="245" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ResetPassword" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Add Books" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="109">
   <si>
     <t>User Forgot Password</t>
   </si>
@@ -244,13 +244,135 @@
   </si>
   <si>
     <t>[false,"Unable To Send Email"]</t>
+  </si>
+  <si>
+    <t>ADD BOOKS THAT YOU ARE WILLING TO LEND</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Sub Title</t>
+  </si>
+  <si>
+    <t>Author (or editor or series name)</t>
+  </si>
+  <si>
+    <t>Any other authors?</t>
+  </si>
+  <si>
+    <t>Language</t>
+  </si>
+  <si>
+    <t>Any other language?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Yes, I really do own this </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>physical</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> book</t>
+    </r>
+  </si>
+  <si>
+    <t>ADD</t>
+  </si>
+  <si>
+    <t>Thank you for adding the book</t>
+  </si>
+  <si>
+    <t>Infinite Vision</t>
+  </si>
+  <si>
+    <t>Please give a bit more info about the book</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Select from available categories (select as many as is applicable)</t>
+  </si>
+  <si>
+    <t>Suggest other categories (separate multiple categories by ; )</t>
+  </si>
+  <si>
+    <t>ADD MORE BOOKS</t>
+  </si>
+  <si>
+    <t>THAT YOU ARE WILLING TO LEND</t>
+  </si>
+  <si>
+    <t>SUBMIT</t>
+  </si>
+  <si>
+    <t>or add more books</t>
+  </si>
+  <si>
+    <t>Thank you for the additional info</t>
+  </si>
+  <si>
+    <t>about Infinite Vision</t>
+  </si>
+  <si>
+    <t>FlatBook::addBook($bookDetails)</t>
+  </si>
+  <si>
+    <t>$categories is array</t>
+  </si>
+  <si>
+    <t>Check $categories count</t>
+  </si>
+  <si>
+    <t>If 0</t>
+  </si>
+  <si>
+    <t>Return false</t>
+  </si>
+  <si>
+    <t>If &gt;= 1</t>
+  </si>
+  <si>
+    <t>Record in DB (BookCategories) - use single multiple insert</t>
+  </si>
+  <si>
+    <t>returns false / true</t>
+  </si>
+  <si>
+    <t>$categories is string</t>
+  </si>
+  <si>
+    <t>Email admin - name of book, book id + suggested category + user fullname</t>
+  </si>
+  <si>
+    <t>FlatBook-&gt;setCategories($categories)</t>
+  </si>
+  <si>
+    <t>FlatBook-&gt;suggestCategories($categories)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -297,8 +419,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="6" tint="0.59999389629810485"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -311,8 +440,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -437,11 +572,106 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -465,6 +695,36 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -761,8 +1021,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:AI104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
-      <selection activeCell="D103" sqref="D103"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2622,13 +2882,1731 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="B1:AT59"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="O59" sqref="O59"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="46" width="3.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:46" ht="15.75" thickBot="1"/>
+    <row r="2" spans="2:46">
+      <c r="B2" s="36"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="38"/>
+      <c r="O2" s="36"/>
+      <c r="P2" s="37"/>
+      <c r="Q2" s="37"/>
+      <c r="R2" s="37"/>
+      <c r="S2" s="37"/>
+      <c r="T2" s="37"/>
+      <c r="U2" s="37"/>
+      <c r="V2" s="37"/>
+      <c r="W2" s="37"/>
+      <c r="X2" s="37"/>
+      <c r="Y2" s="37"/>
+      <c r="Z2" s="37"/>
+      <c r="AA2" s="37"/>
+      <c r="AB2" s="37"/>
+      <c r="AC2" s="37"/>
+      <c r="AD2" s="37"/>
+      <c r="AE2" s="37"/>
+      <c r="AF2" s="37"/>
+      <c r="AG2" s="38"/>
+      <c r="AI2" s="36"/>
+      <c r="AJ2" s="37"/>
+      <c r="AK2" s="37"/>
+      <c r="AL2" s="37"/>
+      <c r="AM2" s="37"/>
+      <c r="AN2" s="37"/>
+      <c r="AO2" s="37"/>
+      <c r="AP2" s="37"/>
+      <c r="AQ2" s="37"/>
+      <c r="AR2" s="37"/>
+      <c r="AS2" s="37"/>
+      <c r="AT2" s="38"/>
+    </row>
+    <row r="3" spans="2:46">
+      <c r="B3" s="39"/>
+      <c r="C3" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="40"/>
+      <c r="O3" s="39"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
+      <c r="U3" s="45" t="s">
+        <v>85</v>
+      </c>
+      <c r="V3" s="45"/>
+      <c r="W3" s="45"/>
+      <c r="X3" s="45"/>
+      <c r="Y3" s="45"/>
+      <c r="Z3" s="5"/>
+      <c r="AA3" s="5"/>
+      <c r="AB3" s="5"/>
+      <c r="AC3" s="5"/>
+      <c r="AD3" s="5"/>
+      <c r="AE3" s="5"/>
+      <c r="AF3" s="5"/>
+      <c r="AG3" s="40"/>
+      <c r="AI3" s="39"/>
+      <c r="AJ3" s="5"/>
+      <c r="AK3" s="45"/>
+      <c r="AL3" s="45"/>
+      <c r="AM3" s="45"/>
+      <c r="AN3" s="45" t="s">
+        <v>95</v>
+      </c>
+      <c r="AO3" s="45"/>
+      <c r="AP3" s="45"/>
+      <c r="AQ3" s="45"/>
+      <c r="AR3" s="5"/>
+      <c r="AS3" s="5"/>
+      <c r="AT3" s="40"/>
+    </row>
+    <row r="4" spans="2:46">
+      <c r="B4" s="39"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="40"/>
+      <c r="O4" s="39"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="45" t="s">
+        <v>86</v>
+      </c>
+      <c r="V4" s="45"/>
+      <c r="W4" s="45"/>
+      <c r="X4" s="45"/>
+      <c r="Y4" s="45"/>
+      <c r="Z4" s="5"/>
+      <c r="AA4" s="5"/>
+      <c r="AB4" s="5"/>
+      <c r="AC4" s="5"/>
+      <c r="AD4" s="5"/>
+      <c r="AE4" s="5"/>
+      <c r="AF4" s="5"/>
+      <c r="AG4" s="40"/>
+      <c r="AI4" s="39"/>
+      <c r="AJ4" s="5"/>
+      <c r="AK4" s="45"/>
+      <c r="AL4" s="45"/>
+      <c r="AM4" s="45"/>
+      <c r="AN4" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="AO4" s="45"/>
+      <c r="AP4" s="45"/>
+      <c r="AQ4" s="45"/>
+      <c r="AR4" s="5"/>
+      <c r="AS4" s="5"/>
+      <c r="AT4" s="40"/>
+    </row>
+    <row r="5" spans="2:46">
+      <c r="B5" s="39"/>
+      <c r="C5" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="40"/>
+      <c r="O5" s="39"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
+      <c r="U5" s="5"/>
+      <c r="V5" s="5"/>
+      <c r="W5" s="5"/>
+      <c r="X5" s="5"/>
+      <c r="Y5" s="5"/>
+      <c r="Z5" s="5"/>
+      <c r="AA5" s="5"/>
+      <c r="AB5" s="5"/>
+      <c r="AC5" s="5"/>
+      <c r="AD5" s="5"/>
+      <c r="AE5" s="5"/>
+      <c r="AF5" s="5"/>
+      <c r="AG5" s="40"/>
+      <c r="AI5" s="39"/>
+      <c r="AJ5" s="5"/>
+      <c r="AK5" s="5"/>
+      <c r="AL5" s="5"/>
+      <c r="AM5" s="5"/>
+      <c r="AN5" s="5"/>
+      <c r="AO5" s="5"/>
+      <c r="AP5" s="5"/>
+      <c r="AQ5" s="5"/>
+      <c r="AR5" s="5"/>
+      <c r="AS5" s="5"/>
+      <c r="AT5" s="40"/>
+    </row>
+    <row r="6" spans="2:46">
+      <c r="B6" s="39"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="40"/>
+      <c r="O6" s="39"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="5"/>
+      <c r="U6" s="5"/>
+      <c r="V6" s="5"/>
+      <c r="W6" s="5"/>
+      <c r="X6" s="5"/>
+      <c r="Y6" s="5"/>
+      <c r="Z6" s="5"/>
+      <c r="AA6" s="5"/>
+      <c r="AB6" s="5"/>
+      <c r="AC6" s="5"/>
+      <c r="AD6" s="5"/>
+      <c r="AE6" s="5"/>
+      <c r="AF6" s="5"/>
+      <c r="AG6" s="40"/>
+      <c r="AI6" s="39"/>
+      <c r="AJ6" s="5"/>
+      <c r="AK6" s="5"/>
+      <c r="AL6" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="AM6" s="5"/>
+      <c r="AN6" s="5"/>
+      <c r="AO6" s="5"/>
+      <c r="AP6" s="5"/>
+      <c r="AQ6" s="5"/>
+      <c r="AR6" s="5"/>
+      <c r="AS6" s="5"/>
+      <c r="AT6" s="40"/>
+    </row>
+    <row r="7" spans="2:46">
+      <c r="B7" s="39"/>
+      <c r="C7" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="40"/>
+      <c r="O7" s="39"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="5"/>
+      <c r="T7" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="U7" s="5"/>
+      <c r="V7" s="5"/>
+      <c r="W7" s="5"/>
+      <c r="X7" s="5"/>
+      <c r="Y7" s="5"/>
+      <c r="Z7" s="5"/>
+      <c r="AA7" s="5"/>
+      <c r="AB7" s="5"/>
+      <c r="AC7" s="5"/>
+      <c r="AD7" s="5"/>
+      <c r="AE7" s="5"/>
+      <c r="AF7" s="5"/>
+      <c r="AG7" s="40"/>
+      <c r="AI7" s="39"/>
+      <c r="AJ7" s="5"/>
+      <c r="AK7" s="5"/>
+      <c r="AL7" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="AM7" s="5"/>
+      <c r="AN7" s="5"/>
+      <c r="AO7" s="5"/>
+      <c r="AP7" s="5"/>
+      <c r="AQ7" s="5"/>
+      <c r="AR7" s="5"/>
+      <c r="AS7" s="5"/>
+      <c r="AT7" s="40"/>
+    </row>
+    <row r="8" spans="2:46">
+      <c r="B8" s="39"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="25"/>
+      <c r="M8" s="40"/>
+      <c r="O8" s="39"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="5"/>
+      <c r="V8" s="5"/>
+      <c r="W8" s="5"/>
+      <c r="X8" s="5"/>
+      <c r="Y8" s="5"/>
+      <c r="Z8" s="5"/>
+      <c r="AA8" s="5"/>
+      <c r="AB8" s="5"/>
+      <c r="AC8" s="5"/>
+      <c r="AD8" s="5"/>
+      <c r="AE8" s="5"/>
+      <c r="AF8" s="5"/>
+      <c r="AG8" s="40"/>
+      <c r="AI8" s="39"/>
+      <c r="AJ8" s="5"/>
+      <c r="AK8" s="5"/>
+      <c r="AL8" s="5"/>
+      <c r="AM8" s="5"/>
+      <c r="AN8" s="5"/>
+      <c r="AO8" s="5"/>
+      <c r="AP8" s="5"/>
+      <c r="AQ8" s="5"/>
+      <c r="AR8" s="5"/>
+      <c r="AS8" s="5"/>
+      <c r="AT8" s="40"/>
+    </row>
+    <row r="9" spans="2:46">
+      <c r="B9" s="39"/>
+      <c r="C9" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="40"/>
+      <c r="O9" s="39"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="5"/>
+      <c r="T9" s="5"/>
+      <c r="U9" s="5"/>
+      <c r="V9" s="5"/>
+      <c r="W9" s="5"/>
+      <c r="X9" s="5"/>
+      <c r="Y9" s="5"/>
+      <c r="Z9" s="5"/>
+      <c r="AA9" s="5"/>
+      <c r="AB9" s="5"/>
+      <c r="AC9" s="5"/>
+      <c r="AD9" s="5"/>
+      <c r="AE9" s="5"/>
+      <c r="AF9" s="5"/>
+      <c r="AG9" s="40"/>
+      <c r="AI9" s="39"/>
+      <c r="AJ9" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="AK9" s="5"/>
+      <c r="AL9" s="5"/>
+      <c r="AM9" s="5"/>
+      <c r="AN9" s="5"/>
+      <c r="AO9" s="5"/>
+      <c r="AP9" s="5"/>
+      <c r="AQ9" s="5"/>
+      <c r="AR9" s="5"/>
+      <c r="AS9" s="5"/>
+      <c r="AT9" s="40"/>
+    </row>
+    <row r="10" spans="2:46">
+      <c r="B10" s="39"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="25"/>
+      <c r="M10" s="40"/>
+      <c r="O10" s="39"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="R10" s="5"/>
+      <c r="S10" s="5"/>
+      <c r="T10" s="5"/>
+      <c r="U10" s="5"/>
+      <c r="V10" s="5"/>
+      <c r="W10" s="5"/>
+      <c r="X10" s="5"/>
+      <c r="Y10" s="5"/>
+      <c r="Z10" s="5"/>
+      <c r="AA10" s="5"/>
+      <c r="AB10" s="5"/>
+      <c r="AC10" s="5"/>
+      <c r="AD10" s="5"/>
+      <c r="AE10" s="5"/>
+      <c r="AF10" s="5"/>
+      <c r="AG10" s="40"/>
+      <c r="AI10" s="39"/>
+      <c r="AJ10" s="23"/>
+      <c r="AK10" s="24"/>
+      <c r="AL10" s="24"/>
+      <c r="AM10" s="24"/>
+      <c r="AN10" s="24"/>
+      <c r="AO10" s="24"/>
+      <c r="AP10" s="24"/>
+      <c r="AQ10" s="24"/>
+      <c r="AR10" s="24"/>
+      <c r="AS10" s="25"/>
+      <c r="AT10" s="40"/>
+    </row>
+    <row r="11" spans="2:46">
+      <c r="B11" s="39"/>
+      <c r="C11" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="40"/>
+      <c r="O11" s="39"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="R11" s="5"/>
+      <c r="S11" s="5"/>
+      <c r="T11" s="5"/>
+      <c r="U11" s="5"/>
+      <c r="V11" s="5"/>
+      <c r="W11" s="5"/>
+      <c r="X11" s="5"/>
+      <c r="Y11" s="5"/>
+      <c r="Z11" s="5"/>
+      <c r="AA11" s="5"/>
+      <c r="AB11" s="5"/>
+      <c r="AC11" s="5"/>
+      <c r="AD11" s="5"/>
+      <c r="AE11" s="5"/>
+      <c r="AF11" s="5"/>
+      <c r="AG11" s="40"/>
+      <c r="AI11" s="39"/>
+      <c r="AJ11" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK11" s="5"/>
+      <c r="AL11" s="5"/>
+      <c r="AM11" s="5"/>
+      <c r="AN11" s="5"/>
+      <c r="AO11" s="5"/>
+      <c r="AP11" s="5"/>
+      <c r="AQ11" s="5"/>
+      <c r="AR11" s="5"/>
+      <c r="AS11" s="5"/>
+      <c r="AT11" s="40"/>
+    </row>
+    <row r="12" spans="2:46">
+      <c r="B12" s="39"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="40"/>
+      <c r="O12" s="39"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="28"/>
+      <c r="R12" s="29"/>
+      <c r="S12" s="29"/>
+      <c r="T12" s="30"/>
+      <c r="U12" s="5"/>
+      <c r="V12" s="5"/>
+      <c r="W12" s="5"/>
+      <c r="X12" s="5"/>
+      <c r="Y12" s="5"/>
+      <c r="Z12" s="5"/>
+      <c r="AA12" s="5"/>
+      <c r="AB12" s="5"/>
+      <c r="AC12" s="5"/>
+      <c r="AD12" s="5"/>
+      <c r="AE12" s="5"/>
+      <c r="AF12" s="5"/>
+      <c r="AG12" s="40"/>
+      <c r="AI12" s="39"/>
+      <c r="AJ12" s="23"/>
+      <c r="AK12" s="24"/>
+      <c r="AL12" s="24"/>
+      <c r="AM12" s="24"/>
+      <c r="AN12" s="24"/>
+      <c r="AO12" s="24"/>
+      <c r="AP12" s="24"/>
+      <c r="AQ12" s="24"/>
+      <c r="AR12" s="24"/>
+      <c r="AS12" s="25"/>
+      <c r="AT12" s="40"/>
+    </row>
+    <row r="13" spans="2:46">
+      <c r="B13" s="39"/>
+      <c r="C13" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="40"/>
+      <c r="O13" s="39"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="31"/>
+      <c r="R13" s="27"/>
+      <c r="S13" s="27"/>
+      <c r="T13" s="32"/>
+      <c r="U13" s="5"/>
+      <c r="V13" s="5"/>
+      <c r="W13" s="5"/>
+      <c r="X13" s="5"/>
+      <c r="Y13" s="5"/>
+      <c r="Z13" s="5"/>
+      <c r="AA13" s="5"/>
+      <c r="AB13" s="5"/>
+      <c r="AC13" s="5"/>
+      <c r="AD13" s="5"/>
+      <c r="AE13" s="5"/>
+      <c r="AF13" s="5"/>
+      <c r="AG13" s="40"/>
+      <c r="AI13" s="39"/>
+      <c r="AJ13" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="AK13" s="5"/>
+      <c r="AL13" s="5"/>
+      <c r="AM13" s="5"/>
+      <c r="AN13" s="5"/>
+      <c r="AO13" s="5"/>
+      <c r="AP13" s="5"/>
+      <c r="AQ13" s="5"/>
+      <c r="AR13" s="5"/>
+      <c r="AS13" s="5"/>
+      <c r="AT13" s="40"/>
+    </row>
+    <row r="14" spans="2:46">
+      <c r="B14" s="39"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="24"/>
+      <c r="L14" s="25"/>
+      <c r="M14" s="40"/>
+      <c r="O14" s="39"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="31"/>
+      <c r="R14" s="27"/>
+      <c r="S14" s="27"/>
+      <c r="T14" s="32"/>
+      <c r="U14" s="5"/>
+      <c r="V14" s="5"/>
+      <c r="W14" s="5"/>
+      <c r="X14" s="5"/>
+      <c r="Y14" s="5"/>
+      <c r="Z14" s="5"/>
+      <c r="AA14" s="5"/>
+      <c r="AB14" s="5"/>
+      <c r="AC14" s="5"/>
+      <c r="AD14" s="5"/>
+      <c r="AE14" s="5"/>
+      <c r="AF14" s="5"/>
+      <c r="AG14" s="40"/>
+      <c r="AI14" s="39"/>
+      <c r="AJ14" s="23"/>
+      <c r="AK14" s="24"/>
+      <c r="AL14" s="24"/>
+      <c r="AM14" s="24"/>
+      <c r="AN14" s="24"/>
+      <c r="AO14" s="24"/>
+      <c r="AP14" s="24"/>
+      <c r="AQ14" s="24"/>
+      <c r="AR14" s="24"/>
+      <c r="AS14" s="25"/>
+      <c r="AT14" s="40"/>
+    </row>
+    <row r="15" spans="2:46">
+      <c r="B15" s="39"/>
+      <c r="C15" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="40"/>
+      <c r="O15" s="39"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="31"/>
+      <c r="R15" s="27"/>
+      <c r="S15" s="27"/>
+      <c r="T15" s="32"/>
+      <c r="U15" s="5"/>
+      <c r="V15" s="5"/>
+      <c r="W15" s="5"/>
+      <c r="X15" s="5"/>
+      <c r="Y15" s="5"/>
+      <c r="Z15" s="5"/>
+      <c r="AA15" s="5"/>
+      <c r="AB15" s="5"/>
+      <c r="AC15" s="5"/>
+      <c r="AD15" s="5"/>
+      <c r="AE15" s="5"/>
+      <c r="AF15" s="5"/>
+      <c r="AG15" s="40"/>
+      <c r="AI15" s="39"/>
+      <c r="AJ15" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="AK15" s="5"/>
+      <c r="AL15" s="5"/>
+      <c r="AM15" s="5"/>
+      <c r="AN15" s="5"/>
+      <c r="AO15" s="5"/>
+      <c r="AP15" s="5"/>
+      <c r="AQ15" s="5"/>
+      <c r="AR15" s="5"/>
+      <c r="AS15" s="5"/>
+      <c r="AT15" s="40"/>
+    </row>
+    <row r="16" spans="2:46">
+      <c r="B16" s="39"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="25"/>
+      <c r="M16" s="40"/>
+      <c r="O16" s="39"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="31"/>
+      <c r="R16" s="27"/>
+      <c r="S16" s="27"/>
+      <c r="T16" s="32"/>
+      <c r="U16" s="5"/>
+      <c r="V16" s="5"/>
+      <c r="W16" s="5"/>
+      <c r="X16" s="5"/>
+      <c r="Y16" s="5"/>
+      <c r="Z16" s="5"/>
+      <c r="AA16" s="5"/>
+      <c r="AB16" s="5"/>
+      <c r="AC16" s="5"/>
+      <c r="AD16" s="5"/>
+      <c r="AE16" s="5"/>
+      <c r="AF16" s="5"/>
+      <c r="AG16" s="40"/>
+      <c r="AI16" s="39"/>
+      <c r="AJ16" s="23"/>
+      <c r="AK16" s="24"/>
+      <c r="AL16" s="24"/>
+      <c r="AM16" s="24"/>
+      <c r="AN16" s="24"/>
+      <c r="AO16" s="24"/>
+      <c r="AP16" s="24"/>
+      <c r="AQ16" s="24"/>
+      <c r="AR16" s="24"/>
+      <c r="AS16" s="25"/>
+      <c r="AT16" s="40"/>
+    </row>
+    <row r="17" spans="2:46">
+      <c r="B17" s="39"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="40"/>
+      <c r="O17" s="39"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="31"/>
+      <c r="R17" s="27"/>
+      <c r="S17" s="27"/>
+      <c r="T17" s="32"/>
+      <c r="U17" s="5"/>
+      <c r="V17" s="5"/>
+      <c r="W17" s="5"/>
+      <c r="X17" s="5"/>
+      <c r="Y17" s="5"/>
+      <c r="Z17" s="5"/>
+      <c r="AA17" s="5"/>
+      <c r="AB17" s="5"/>
+      <c r="AC17" s="5"/>
+      <c r="AD17" s="5"/>
+      <c r="AE17" s="5"/>
+      <c r="AF17" s="5"/>
+      <c r="AG17" s="40"/>
+      <c r="AI17" s="39"/>
+      <c r="AJ17" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="AK17" s="5"/>
+      <c r="AL17" s="5"/>
+      <c r="AM17" s="5"/>
+      <c r="AN17" s="5"/>
+      <c r="AO17" s="5"/>
+      <c r="AP17" s="5"/>
+      <c r="AQ17" s="5"/>
+      <c r="AR17" s="5"/>
+      <c r="AS17" s="5"/>
+      <c r="AT17" s="40"/>
+    </row>
+    <row r="18" spans="2:46">
+      <c r="B18" s="39"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="40"/>
+      <c r="O18" s="39"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="33"/>
+      <c r="R18" s="34"/>
+      <c r="S18" s="34"/>
+      <c r="T18" s="35"/>
+      <c r="U18" s="5"/>
+      <c r="V18" s="5"/>
+      <c r="W18" s="5"/>
+      <c r="X18" s="5"/>
+      <c r="Y18" s="5"/>
+      <c r="Z18" s="5"/>
+      <c r="AA18" s="5"/>
+      <c r="AB18" s="5"/>
+      <c r="AC18" s="5"/>
+      <c r="AD18" s="5"/>
+      <c r="AE18" s="5"/>
+      <c r="AF18" s="5"/>
+      <c r="AG18" s="40"/>
+      <c r="AI18" s="39"/>
+      <c r="AJ18" s="23"/>
+      <c r="AK18" s="24"/>
+      <c r="AL18" s="24"/>
+      <c r="AM18" s="24"/>
+      <c r="AN18" s="24"/>
+      <c r="AO18" s="24"/>
+      <c r="AP18" s="24"/>
+      <c r="AQ18" s="24"/>
+      <c r="AR18" s="24"/>
+      <c r="AS18" s="25"/>
+      <c r="AT18" s="40"/>
+    </row>
+    <row r="19" spans="2:46">
+      <c r="B19" s="39"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="40"/>
+      <c r="O19" s="39"/>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="5"/>
+      <c r="R19" s="5"/>
+      <c r="S19" s="5"/>
+      <c r="T19" s="5"/>
+      <c r="U19" s="5"/>
+      <c r="V19" s="5"/>
+      <c r="W19" s="5"/>
+      <c r="X19" s="5"/>
+      <c r="Y19" s="5"/>
+      <c r="Z19" s="5"/>
+      <c r="AA19" s="5"/>
+      <c r="AB19" s="5"/>
+      <c r="AC19" s="5"/>
+      <c r="AD19" s="5"/>
+      <c r="AE19" s="5"/>
+      <c r="AF19" s="5"/>
+      <c r="AG19" s="40"/>
+      <c r="AI19" s="39"/>
+      <c r="AJ19" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="AK19" s="5"/>
+      <c r="AL19" s="5"/>
+      <c r="AM19" s="5"/>
+      <c r="AN19" s="5"/>
+      <c r="AO19" s="5"/>
+      <c r="AP19" s="5"/>
+      <c r="AQ19" s="5"/>
+      <c r="AR19" s="5"/>
+      <c r="AS19" s="5"/>
+      <c r="AT19" s="40"/>
+    </row>
+    <row r="20" spans="2:46">
+      <c r="B20" s="39"/>
+      <c r="C20" s="41" t="s">
+        <v>84</v>
+      </c>
+      <c r="D20" s="41"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="40"/>
+      <c r="O20" s="39"/>
+      <c r="P20" s="5"/>
+      <c r="Q20" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="R20" s="5"/>
+      <c r="S20" s="5"/>
+      <c r="T20" s="5"/>
+      <c r="U20" s="5"/>
+      <c r="V20" s="5"/>
+      <c r="W20" s="5"/>
+      <c r="X20" s="5"/>
+      <c r="Y20" s="5"/>
+      <c r="Z20" s="5"/>
+      <c r="AA20" s="5"/>
+      <c r="AB20" s="5"/>
+      <c r="AC20" s="5"/>
+      <c r="AD20" s="5"/>
+      <c r="AE20" s="5"/>
+      <c r="AF20" s="5"/>
+      <c r="AG20" s="40"/>
+      <c r="AI20" s="39"/>
+      <c r="AJ20" s="23"/>
+      <c r="AK20" s="24"/>
+      <c r="AL20" s="24"/>
+      <c r="AM20" s="24"/>
+      <c r="AN20" s="24"/>
+      <c r="AO20" s="24"/>
+      <c r="AP20" s="24"/>
+      <c r="AQ20" s="24"/>
+      <c r="AR20" s="24"/>
+      <c r="AS20" s="25"/>
+      <c r="AT20" s="40"/>
+    </row>
+    <row r="21" spans="2:46" ht="15.75" thickBot="1">
+      <c r="B21" s="42"/>
+      <c r="C21" s="43"/>
+      <c r="D21" s="43"/>
+      <c r="E21" s="43"/>
+      <c r="F21" s="43"/>
+      <c r="G21" s="43"/>
+      <c r="H21" s="43"/>
+      <c r="I21" s="43"/>
+      <c r="J21" s="43"/>
+      <c r="K21" s="43"/>
+      <c r="L21" s="43"/>
+      <c r="M21" s="44"/>
+      <c r="O21" s="39"/>
+      <c r="P21" s="5"/>
+      <c r="Q21" s="23"/>
+      <c r="R21" s="24"/>
+      <c r="S21" s="24"/>
+      <c r="T21" s="24"/>
+      <c r="U21" s="24"/>
+      <c r="V21" s="24"/>
+      <c r="W21" s="24"/>
+      <c r="X21" s="24"/>
+      <c r="Y21" s="24"/>
+      <c r="Z21" s="25"/>
+      <c r="AA21" s="5"/>
+      <c r="AB21" s="5"/>
+      <c r="AC21" s="5"/>
+      <c r="AD21" s="5"/>
+      <c r="AE21" s="5"/>
+      <c r="AF21" s="5"/>
+      <c r="AG21" s="40"/>
+      <c r="AI21" s="39"/>
+      <c r="AJ21" s="5"/>
+      <c r="AK21" s="5"/>
+      <c r="AL21" s="5"/>
+      <c r="AM21" s="5"/>
+      <c r="AN21" s="5"/>
+      <c r="AO21" s="5"/>
+      <c r="AP21" s="5"/>
+      <c r="AQ21" s="5"/>
+      <c r="AR21" s="5"/>
+      <c r="AS21" s="5"/>
+      <c r="AT21" s="40"/>
+    </row>
+    <row r="22" spans="2:46" ht="18.75">
+      <c r="B22" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="O22" s="39"/>
+      <c r="P22" s="5"/>
+      <c r="Q22" s="5"/>
+      <c r="R22" s="5"/>
+      <c r="S22" s="5"/>
+      <c r="T22" s="5"/>
+      <c r="U22" s="5"/>
+      <c r="V22" s="5"/>
+      <c r="W22" s="5"/>
+      <c r="X22" s="5"/>
+      <c r="Y22" s="5"/>
+      <c r="Z22" s="5"/>
+      <c r="AA22" s="5"/>
+      <c r="AB22" s="5"/>
+      <c r="AC22" s="5"/>
+      <c r="AD22" s="5"/>
+      <c r="AE22" s="5"/>
+      <c r="AF22" s="5"/>
+      <c r="AG22" s="40"/>
+      <c r="AI22" s="39"/>
+      <c r="AJ22" s="26"/>
+      <c r="AK22" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="AL22" s="5"/>
+      <c r="AM22" s="5"/>
+      <c r="AN22" s="5"/>
+      <c r="AO22" s="5"/>
+      <c r="AP22" s="5"/>
+      <c r="AQ22" s="5"/>
+      <c r="AR22" s="5"/>
+      <c r="AS22" s="5"/>
+      <c r="AT22" s="40"/>
+    </row>
+    <row r="23" spans="2:46">
+      <c r="O23" s="39"/>
+      <c r="P23" s="5"/>
+      <c r="Q23" s="46" t="s">
+        <v>93</v>
+      </c>
+      <c r="R23" s="41"/>
+      <c r="S23" s="5"/>
+      <c r="T23" s="5"/>
+      <c r="U23" s="5"/>
+      <c r="V23" s="5"/>
+      <c r="W23" s="5"/>
+      <c r="X23" s="5"/>
+      <c r="Y23" s="5"/>
+      <c r="Z23" s="5"/>
+      <c r="AA23" s="5"/>
+      <c r="AB23" s="5"/>
+      <c r="AC23" s="5"/>
+      <c r="AD23" s="5"/>
+      <c r="AE23" s="5"/>
+      <c r="AF23" s="5"/>
+      <c r="AG23" s="40"/>
+      <c r="AI23" s="39"/>
+      <c r="AJ23" s="5"/>
+      <c r="AK23" s="5"/>
+      <c r="AL23" s="5"/>
+      <c r="AM23" s="5"/>
+      <c r="AN23" s="5"/>
+      <c r="AO23" s="5"/>
+      <c r="AP23" s="5"/>
+      <c r="AQ23" s="5"/>
+      <c r="AR23" s="5"/>
+      <c r="AS23" s="5"/>
+      <c r="AT23" s="40"/>
+    </row>
+    <row r="24" spans="2:46">
+      <c r="O24" s="39"/>
+      <c r="P24" s="5"/>
+      <c r="Q24" s="5"/>
+      <c r="R24" s="5"/>
+      <c r="S24" s="5"/>
+      <c r="T24" s="5"/>
+      <c r="U24" s="5"/>
+      <c r="V24" s="5"/>
+      <c r="W24" s="5"/>
+      <c r="X24" s="5"/>
+      <c r="Y24" s="5"/>
+      <c r="Z24" s="5"/>
+      <c r="AA24" s="5"/>
+      <c r="AB24" s="5"/>
+      <c r="AC24" s="5"/>
+      <c r="AD24" s="5"/>
+      <c r="AE24" s="5"/>
+      <c r="AF24" s="5"/>
+      <c r="AG24" s="40"/>
+      <c r="AI24" s="39"/>
+      <c r="AJ24" s="41" t="s">
+        <v>84</v>
+      </c>
+      <c r="AK24" s="41"/>
+      <c r="AL24" s="5"/>
+      <c r="AM24" s="5"/>
+      <c r="AN24" s="5"/>
+      <c r="AO24" s="5"/>
+      <c r="AP24" s="5"/>
+      <c r="AQ24" s="5"/>
+      <c r="AR24" s="5"/>
+      <c r="AS24" s="5"/>
+      <c r="AT24" s="40"/>
+    </row>
+    <row r="25" spans="2:46" ht="15.75" thickBot="1">
+      <c r="O25" s="39"/>
+      <c r="P25" s="5"/>
+      <c r="Q25" s="5"/>
+      <c r="R25" s="5"/>
+      <c r="S25" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="T25" s="5"/>
+      <c r="U25" s="5"/>
+      <c r="V25" s="5"/>
+      <c r="W25" s="5"/>
+      <c r="X25" s="5"/>
+      <c r="Y25" s="5"/>
+      <c r="Z25" s="5"/>
+      <c r="AA25" s="5"/>
+      <c r="AB25" s="5"/>
+      <c r="AC25" s="5"/>
+      <c r="AD25" s="5"/>
+      <c r="AE25" s="5"/>
+      <c r="AF25" s="5"/>
+      <c r="AG25" s="40"/>
+      <c r="AI25" s="42"/>
+      <c r="AJ25" s="43"/>
+      <c r="AK25" s="43"/>
+      <c r="AL25" s="43"/>
+      <c r="AM25" s="43"/>
+      <c r="AN25" s="43"/>
+      <c r="AO25" s="43"/>
+      <c r="AP25" s="43"/>
+      <c r="AQ25" s="43"/>
+      <c r="AR25" s="43"/>
+      <c r="AS25" s="43"/>
+      <c r="AT25" s="44"/>
+    </row>
+    <row r="26" spans="2:46">
+      <c r="O26" s="39"/>
+      <c r="P26" s="5"/>
+      <c r="Q26" s="5"/>
+      <c r="R26" s="5"/>
+      <c r="S26" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="T26" s="5"/>
+      <c r="U26" s="5"/>
+      <c r="V26" s="5"/>
+      <c r="W26" s="5"/>
+      <c r="X26" s="5"/>
+      <c r="Y26" s="5"/>
+      <c r="Z26" s="5"/>
+      <c r="AA26" s="5"/>
+      <c r="AB26" s="5"/>
+      <c r="AC26" s="5"/>
+      <c r="AD26" s="5"/>
+      <c r="AE26" s="5"/>
+      <c r="AF26" s="5"/>
+      <c r="AG26" s="40"/>
+    </row>
+    <row r="27" spans="2:46">
+      <c r="O27" s="39"/>
+      <c r="P27" s="5"/>
+      <c r="Q27" s="5"/>
+      <c r="R27" s="5"/>
+      <c r="S27" s="5"/>
+      <c r="T27" s="5"/>
+      <c r="U27" s="5"/>
+      <c r="V27" s="5"/>
+      <c r="W27" s="5"/>
+      <c r="X27" s="5"/>
+      <c r="Y27" s="5"/>
+      <c r="Z27" s="5"/>
+      <c r="AA27" s="5"/>
+      <c r="AB27" s="5"/>
+      <c r="AC27" s="5"/>
+      <c r="AD27" s="5"/>
+      <c r="AE27" s="5"/>
+      <c r="AF27" s="5"/>
+      <c r="AG27" s="40"/>
+    </row>
+    <row r="28" spans="2:46">
+      <c r="O28" s="39"/>
+      <c r="P28" s="5"/>
+      <c r="Q28" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="R28" s="5"/>
+      <c r="S28" s="5"/>
+      <c r="T28" s="5"/>
+      <c r="U28" s="5"/>
+      <c r="V28" s="5"/>
+      <c r="W28" s="5"/>
+      <c r="X28" s="5"/>
+      <c r="Y28" s="5"/>
+      <c r="Z28" s="5"/>
+      <c r="AA28" s="5"/>
+      <c r="AB28" s="5"/>
+      <c r="AC28" s="5"/>
+      <c r="AD28" s="5"/>
+      <c r="AE28" s="5"/>
+      <c r="AF28" s="5"/>
+      <c r="AG28" s="40"/>
+    </row>
+    <row r="29" spans="2:46">
+      <c r="O29" s="39"/>
+      <c r="P29" s="5"/>
+      <c r="Q29" s="23"/>
+      <c r="R29" s="24"/>
+      <c r="S29" s="24"/>
+      <c r="T29" s="24"/>
+      <c r="U29" s="24"/>
+      <c r="V29" s="24"/>
+      <c r="W29" s="24"/>
+      <c r="X29" s="24"/>
+      <c r="Y29" s="24"/>
+      <c r="Z29" s="25"/>
+      <c r="AA29" s="5"/>
+      <c r="AB29" s="5"/>
+      <c r="AC29" s="5"/>
+      <c r="AD29" s="5"/>
+      <c r="AE29" s="5"/>
+      <c r="AF29" s="5"/>
+      <c r="AG29" s="40"/>
+    </row>
+    <row r="30" spans="2:46">
+      <c r="O30" s="39"/>
+      <c r="P30" s="5"/>
+      <c r="Q30" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="R30" s="5"/>
+      <c r="S30" s="5"/>
+      <c r="T30" s="5"/>
+      <c r="U30" s="5"/>
+      <c r="V30" s="5"/>
+      <c r="W30" s="5"/>
+      <c r="X30" s="5"/>
+      <c r="Y30" s="5"/>
+      <c r="Z30" s="5"/>
+      <c r="AA30" s="5"/>
+      <c r="AB30" s="5"/>
+      <c r="AC30" s="5"/>
+      <c r="AD30" s="5"/>
+      <c r="AE30" s="5"/>
+      <c r="AF30" s="5"/>
+      <c r="AG30" s="40"/>
+    </row>
+    <row r="31" spans="2:46">
+      <c r="O31" s="39"/>
+      <c r="P31" s="5"/>
+      <c r="Q31" s="23"/>
+      <c r="R31" s="24"/>
+      <c r="S31" s="24"/>
+      <c r="T31" s="24"/>
+      <c r="U31" s="24"/>
+      <c r="V31" s="24"/>
+      <c r="W31" s="24"/>
+      <c r="X31" s="24"/>
+      <c r="Y31" s="24"/>
+      <c r="Z31" s="25"/>
+      <c r="AA31" s="5"/>
+      <c r="AB31" s="5"/>
+      <c r="AC31" s="5"/>
+      <c r="AD31" s="5"/>
+      <c r="AE31" s="5"/>
+      <c r="AF31" s="5"/>
+      <c r="AG31" s="40"/>
+    </row>
+    <row r="32" spans="2:46">
+      <c r="O32" s="39"/>
+      <c r="P32" s="5"/>
+      <c r="Q32" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="R32" s="5"/>
+      <c r="S32" s="5"/>
+      <c r="T32" s="5"/>
+      <c r="U32" s="5"/>
+      <c r="V32" s="5"/>
+      <c r="W32" s="5"/>
+      <c r="X32" s="5"/>
+      <c r="Y32" s="5"/>
+      <c r="Z32" s="5"/>
+      <c r="AA32" s="5"/>
+      <c r="AB32" s="5"/>
+      <c r="AC32" s="5"/>
+      <c r="AD32" s="5"/>
+      <c r="AE32" s="5"/>
+      <c r="AF32" s="5"/>
+      <c r="AG32" s="40"/>
+    </row>
+    <row r="33" spans="15:33">
+      <c r="O33" s="39"/>
+      <c r="P33" s="5"/>
+      <c r="Q33" s="23"/>
+      <c r="R33" s="24"/>
+      <c r="S33" s="24"/>
+      <c r="T33" s="24"/>
+      <c r="U33" s="24"/>
+      <c r="V33" s="24"/>
+      <c r="W33" s="24"/>
+      <c r="X33" s="24"/>
+      <c r="Y33" s="24"/>
+      <c r="Z33" s="25"/>
+      <c r="AA33" s="5"/>
+      <c r="AB33" s="5"/>
+      <c r="AC33" s="5"/>
+      <c r="AD33" s="5"/>
+      <c r="AE33" s="5"/>
+      <c r="AF33" s="5"/>
+      <c r="AG33" s="40"/>
+    </row>
+    <row r="34" spans="15:33">
+      <c r="O34" s="39"/>
+      <c r="P34" s="5"/>
+      <c r="Q34" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="R34" s="5"/>
+      <c r="S34" s="5"/>
+      <c r="T34" s="5"/>
+      <c r="U34" s="5"/>
+      <c r="V34" s="5"/>
+      <c r="W34" s="5"/>
+      <c r="X34" s="5"/>
+      <c r="Y34" s="5"/>
+      <c r="Z34" s="5"/>
+      <c r="AA34" s="5"/>
+      <c r="AB34" s="5"/>
+      <c r="AC34" s="5"/>
+      <c r="AD34" s="5"/>
+      <c r="AE34" s="5"/>
+      <c r="AF34" s="5"/>
+      <c r="AG34" s="40"/>
+    </row>
+    <row r="35" spans="15:33">
+      <c r="O35" s="39"/>
+      <c r="P35" s="5"/>
+      <c r="Q35" s="23"/>
+      <c r="R35" s="24"/>
+      <c r="S35" s="24"/>
+      <c r="T35" s="24"/>
+      <c r="U35" s="24"/>
+      <c r="V35" s="24"/>
+      <c r="W35" s="24"/>
+      <c r="X35" s="24"/>
+      <c r="Y35" s="24"/>
+      <c r="Z35" s="25"/>
+      <c r="AA35" s="5"/>
+      <c r="AB35" s="5"/>
+      <c r="AC35" s="5"/>
+      <c r="AD35" s="5"/>
+      <c r="AE35" s="5"/>
+      <c r="AF35" s="5"/>
+      <c r="AG35" s="40"/>
+    </row>
+    <row r="36" spans="15:33">
+      <c r="O36" s="39"/>
+      <c r="P36" s="5"/>
+      <c r="Q36" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="R36" s="5"/>
+      <c r="S36" s="5"/>
+      <c r="T36" s="5"/>
+      <c r="U36" s="5"/>
+      <c r="V36" s="5"/>
+      <c r="W36" s="5"/>
+      <c r="X36" s="5"/>
+      <c r="Y36" s="5"/>
+      <c r="Z36" s="5"/>
+      <c r="AA36" s="5"/>
+      <c r="AB36" s="5"/>
+      <c r="AC36" s="5"/>
+      <c r="AD36" s="5"/>
+      <c r="AE36" s="5"/>
+      <c r="AF36" s="5"/>
+      <c r="AG36" s="40"/>
+    </row>
+    <row r="37" spans="15:33">
+      <c r="O37" s="39"/>
+      <c r="P37" s="5"/>
+      <c r="Q37" s="23"/>
+      <c r="R37" s="24"/>
+      <c r="S37" s="24"/>
+      <c r="T37" s="24"/>
+      <c r="U37" s="24"/>
+      <c r="V37" s="24"/>
+      <c r="W37" s="24"/>
+      <c r="X37" s="24"/>
+      <c r="Y37" s="24"/>
+      <c r="Z37" s="25"/>
+      <c r="AA37" s="5"/>
+      <c r="AB37" s="5"/>
+      <c r="AC37" s="5"/>
+      <c r="AD37" s="5"/>
+      <c r="AE37" s="5"/>
+      <c r="AF37" s="5"/>
+      <c r="AG37" s="40"/>
+    </row>
+    <row r="38" spans="15:33">
+      <c r="O38" s="39"/>
+      <c r="P38" s="5"/>
+      <c r="Q38" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="R38" s="5"/>
+      <c r="S38" s="5"/>
+      <c r="T38" s="5"/>
+      <c r="U38" s="5"/>
+      <c r="V38" s="5"/>
+      <c r="W38" s="5"/>
+      <c r="X38" s="5"/>
+      <c r="Y38" s="5"/>
+      <c r="Z38" s="5"/>
+      <c r="AA38" s="5"/>
+      <c r="AB38" s="5"/>
+      <c r="AC38" s="5"/>
+      <c r="AD38" s="5"/>
+      <c r="AE38" s="5"/>
+      <c r="AF38" s="5"/>
+      <c r="AG38" s="40"/>
+    </row>
+    <row r="39" spans="15:33">
+      <c r="O39" s="39"/>
+      <c r="P39" s="5"/>
+      <c r="Q39" s="23"/>
+      <c r="R39" s="24"/>
+      <c r="S39" s="24"/>
+      <c r="T39" s="24"/>
+      <c r="U39" s="24"/>
+      <c r="V39" s="24"/>
+      <c r="W39" s="24"/>
+      <c r="X39" s="24"/>
+      <c r="Y39" s="24"/>
+      <c r="Z39" s="25"/>
+      <c r="AA39" s="5"/>
+      <c r="AB39" s="5"/>
+      <c r="AC39" s="5"/>
+      <c r="AD39" s="5"/>
+      <c r="AE39" s="5"/>
+      <c r="AF39" s="5"/>
+      <c r="AG39" s="40"/>
+    </row>
+    <row r="40" spans="15:33">
+      <c r="O40" s="39"/>
+      <c r="P40" s="5"/>
+      <c r="Q40" s="5"/>
+      <c r="R40" s="5"/>
+      <c r="S40" s="5"/>
+      <c r="T40" s="5"/>
+      <c r="U40" s="5"/>
+      <c r="V40" s="5"/>
+      <c r="W40" s="5"/>
+      <c r="X40" s="5"/>
+      <c r="Y40" s="5"/>
+      <c r="Z40" s="5"/>
+      <c r="AA40" s="5"/>
+      <c r="AB40" s="5"/>
+      <c r="AC40" s="5"/>
+      <c r="AD40" s="5"/>
+      <c r="AE40" s="5"/>
+      <c r="AF40" s="5"/>
+      <c r="AG40" s="40"/>
+    </row>
+    <row r="41" spans="15:33">
+      <c r="O41" s="39"/>
+      <c r="P41" s="5"/>
+      <c r="Q41" s="26"/>
+      <c r="R41" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="S41" s="5"/>
+      <c r="T41" s="5"/>
+      <c r="U41" s="5"/>
+      <c r="V41" s="5"/>
+      <c r="W41" s="5"/>
+      <c r="X41" s="5"/>
+      <c r="Y41" s="5"/>
+      <c r="Z41" s="5"/>
+      <c r="AA41" s="5"/>
+      <c r="AB41" s="5"/>
+      <c r="AC41" s="5"/>
+      <c r="AD41" s="5"/>
+      <c r="AE41" s="5"/>
+      <c r="AF41" s="5"/>
+      <c r="AG41" s="40"/>
+    </row>
+    <row r="42" spans="15:33">
+      <c r="O42" s="39"/>
+      <c r="P42" s="5"/>
+      <c r="Q42" s="5"/>
+      <c r="R42" s="5"/>
+      <c r="S42" s="5"/>
+      <c r="T42" s="5"/>
+      <c r="U42" s="5"/>
+      <c r="V42" s="5"/>
+      <c r="W42" s="5"/>
+      <c r="X42" s="5"/>
+      <c r="Y42" s="5"/>
+      <c r="Z42" s="5"/>
+      <c r="AA42" s="5"/>
+      <c r="AB42" s="5"/>
+      <c r="AC42" s="5"/>
+      <c r="AD42" s="5"/>
+      <c r="AE42" s="5"/>
+      <c r="AF42" s="5"/>
+      <c r="AG42" s="40"/>
+    </row>
+    <row r="43" spans="15:33">
+      <c r="O43" s="39"/>
+      <c r="P43" s="5"/>
+      <c r="Q43" s="41" t="s">
+        <v>84</v>
+      </c>
+      <c r="R43" s="41"/>
+      <c r="S43" s="5"/>
+      <c r="T43" s="5"/>
+      <c r="U43" s="5"/>
+      <c r="V43" s="5"/>
+      <c r="W43" s="5"/>
+      <c r="X43" s="5"/>
+      <c r="Y43" s="5"/>
+      <c r="Z43" s="5"/>
+      <c r="AA43" s="5"/>
+      <c r="AB43" s="5"/>
+      <c r="AC43" s="5"/>
+      <c r="AD43" s="5"/>
+      <c r="AE43" s="5"/>
+      <c r="AF43" s="5"/>
+      <c r="AG43" s="40"/>
+    </row>
+    <row r="44" spans="15:33">
+      <c r="O44" s="39"/>
+      <c r="P44" s="5"/>
+      <c r="Q44" s="5"/>
+      <c r="R44" s="5"/>
+      <c r="S44" s="5"/>
+      <c r="T44" s="5"/>
+      <c r="U44" s="5"/>
+      <c r="V44" s="5"/>
+      <c r="W44" s="5"/>
+      <c r="X44" s="5"/>
+      <c r="Y44" s="5"/>
+      <c r="Z44" s="5"/>
+      <c r="AA44" s="5"/>
+      <c r="AB44" s="5"/>
+      <c r="AC44" s="5"/>
+      <c r="AD44" s="5"/>
+      <c r="AE44" s="5"/>
+      <c r="AF44" s="5"/>
+      <c r="AG44" s="40"/>
+    </row>
+    <row r="45" spans="15:33" ht="15.75" thickBot="1">
+      <c r="O45" s="42"/>
+      <c r="P45" s="43"/>
+      <c r="Q45" s="43"/>
+      <c r="R45" s="43"/>
+      <c r="S45" s="43"/>
+      <c r="T45" s="43"/>
+      <c r="U45" s="43"/>
+      <c r="V45" s="43"/>
+      <c r="W45" s="43"/>
+      <c r="X45" s="43"/>
+      <c r="Y45" s="43"/>
+      <c r="Z45" s="43"/>
+      <c r="AA45" s="43"/>
+      <c r="AB45" s="43"/>
+      <c r="AC45" s="43"/>
+      <c r="AD45" s="43"/>
+      <c r="AE45" s="43"/>
+      <c r="AF45" s="43"/>
+      <c r="AG45" s="44"/>
+    </row>
+    <row r="46" spans="15:33">
+      <c r="O46" s="5"/>
+      <c r="P46" s="5"/>
+      <c r="Q46" s="5"/>
+      <c r="R46" s="5"/>
+      <c r="S46" s="5"/>
+      <c r="T46" s="5"/>
+      <c r="U46" s="5"/>
+      <c r="V46" s="5"/>
+      <c r="W46" s="5"/>
+      <c r="X46" s="5"/>
+      <c r="Y46" s="5"/>
+      <c r="Z46" s="5"/>
+      <c r="AA46" s="5"/>
+      <c r="AB46" s="5"/>
+      <c r="AC46" s="5"/>
+      <c r="AD46" s="5"/>
+      <c r="AE46" s="5"/>
+      <c r="AF46" s="5"/>
+      <c r="AG46" s="5"/>
+    </row>
+    <row r="47" spans="15:33">
+      <c r="O47" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="P47" s="5"/>
+      <c r="Q47" s="5"/>
+      <c r="R47" s="5"/>
+      <c r="S47" s="5"/>
+      <c r="T47" s="5"/>
+      <c r="U47" s="5"/>
+      <c r="V47" s="5"/>
+      <c r="W47" s="5"/>
+      <c r="X47" s="5"/>
+      <c r="Y47" s="5"/>
+      <c r="Z47" s="5"/>
+      <c r="AA47" s="5"/>
+      <c r="AB47" s="5"/>
+      <c r="AC47" s="5"/>
+      <c r="AD47" s="5"/>
+      <c r="AE47" s="5"/>
+      <c r="AF47" s="5"/>
+      <c r="AG47" s="5"/>
+    </row>
+    <row r="48" spans="15:33">
+      <c r="O48" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="P48" s="5"/>
+      <c r="Q48" s="5"/>
+      <c r="R48" s="5"/>
+      <c r="S48" s="5"/>
+      <c r="T48" s="5"/>
+      <c r="U48" s="5"/>
+      <c r="V48" s="5"/>
+      <c r="W48" s="5"/>
+      <c r="X48" s="5"/>
+      <c r="Y48" s="5"/>
+      <c r="Z48" s="5"/>
+      <c r="AA48" s="5"/>
+      <c r="AB48" s="5"/>
+      <c r="AC48" s="5"/>
+      <c r="AD48" s="5"/>
+      <c r="AE48" s="5"/>
+      <c r="AF48" s="5"/>
+      <c r="AG48" s="5"/>
+    </row>
+    <row r="49" spans="15:33" ht="18.75">
+      <c r="O49" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="P49" s="5"/>
+      <c r="Q49" s="5"/>
+      <c r="R49" s="5"/>
+      <c r="S49" s="5"/>
+      <c r="T49" s="5"/>
+      <c r="U49" s="5"/>
+      <c r="V49" s="5"/>
+      <c r="W49" s="5"/>
+      <c r="X49" s="5"/>
+      <c r="Y49" s="5"/>
+      <c r="Z49" s="5"/>
+      <c r="AA49" s="5"/>
+      <c r="AB49" s="5"/>
+      <c r="AC49" s="5"/>
+      <c r="AD49" s="5"/>
+      <c r="AE49" s="5"/>
+      <c r="AF49" s="5"/>
+      <c r="AG49" s="5"/>
+    </row>
+    <row r="50" spans="15:33">
+      <c r="O50" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="P50" s="5"/>
+      <c r="Q50" s="5"/>
+      <c r="R50" s="5"/>
+      <c r="S50" s="5"/>
+      <c r="T50" s="5"/>
+      <c r="U50" s="5"/>
+      <c r="V50" s="5"/>
+      <c r="W50" s="5"/>
+      <c r="X50" s="5"/>
+      <c r="Y50" s="5"/>
+      <c r="Z50" s="5"/>
+      <c r="AA50" s="5"/>
+      <c r="AB50" s="5"/>
+      <c r="AC50" s="5"/>
+      <c r="AD50" s="5"/>
+      <c r="AE50" s="5"/>
+      <c r="AF50" s="5"/>
+      <c r="AG50" s="5"/>
+    </row>
+    <row r="51" spans="15:33">
+      <c r="O51" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="P51" s="21"/>
+    </row>
+    <row r="52" spans="15:33">
+      <c r="O52" s="21"/>
+      <c r="P52" s="21" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="53" spans="15:33">
+      <c r="O53" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="P53" s="21"/>
+      <c r="Q53" s="21"/>
+    </row>
+    <row r="54" spans="15:33">
+      <c r="O54" s="21"/>
+      <c r="P54" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q54" s="21"/>
+    </row>
+    <row r="56" spans="15:33">
+      <c r="O56" s="21" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="57" spans="15:33">
+      <c r="O57" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="P57" s="5"/>
+      <c r="Q57" s="5"/>
+      <c r="R57" s="5"/>
+      <c r="S57" s="5"/>
+      <c r="T57" s="5"/>
+      <c r="U57" s="5"/>
+      <c r="V57" s="5"/>
+      <c r="W57" s="5"/>
+      <c r="X57" s="5"/>
+      <c r="Y57" s="5"/>
+      <c r="Z57" s="5"/>
+      <c r="AA57" s="5"/>
+      <c r="AB57" s="5"/>
+      <c r="AC57" s="5"/>
+      <c r="AD57" s="5"/>
+      <c r="AE57" s="5"/>
+      <c r="AF57" s="5"/>
+      <c r="AG57" s="5"/>
+    </row>
+    <row r="58" spans="15:33" ht="18.75">
+      <c r="O58" s="22" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="59" spans="15:33">
+      <c r="O59" s="21" t="s">
+        <v>106</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/devNotes/mockUps.xlsx
+++ b/devNotes/mockUps.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="30" windowWidth="19095" windowHeight="12015" tabRatio="245" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="30" windowWidth="15270" windowHeight="5685" tabRatio="347" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="ResetPassword" sheetId="1" r:id="rId1"/>
     <sheet name="Add Books" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Admin Tasks" sheetId="3" r:id="rId3"/>
+    <sheet name="Delete Book" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="130">
   <si>
     <t>User Forgot Password</t>
   </si>
@@ -366,6 +367,69 @@
   </si>
   <si>
     <t>FlatBook-&gt;suggestCategories($categories)</t>
+  </si>
+  <si>
+    <t>When new user joins</t>
+  </si>
+  <si>
+    <t>If user from new location, add data to location table, add locationid to user table</t>
+  </si>
+  <si>
+    <t>If user has already added book, add locationid to bookcopy</t>
+  </si>
+  <si>
+    <t>When user adds book</t>
+  </si>
+  <si>
+    <t>Verify book and update checked flag</t>
+  </si>
+  <si>
+    <t>Verify category, add in bookcategory if required</t>
+  </si>
+  <si>
+    <t>When user suggests category</t>
+  </si>
+  <si>
+    <t>Add new category if appropriate and add record in bookcopies</t>
+  </si>
+  <si>
+    <t>When user deletes book</t>
+  </si>
+  <si>
+    <t>Verify what information has been deleted and actually delete from tables (transactions, messages, bookcopies, books)</t>
+  </si>
+  <si>
+    <t>BookCopy-&gt;delete()</t>
+  </si>
+  <si>
+    <t>Verify that no active transactions exist</t>
+  </si>
+  <si>
+    <t>If they do, give user details of transaction and ask for confirmation</t>
+  </si>
+  <si>
+    <t>If they do not, ask user for plain confirmation</t>
+  </si>
+  <si>
+    <t>If confirmed</t>
+  </si>
+  <si>
+    <t>Mark bookcopy deleted</t>
+  </si>
+  <si>
+    <t>If no more copy of this book</t>
+  </si>
+  <si>
+    <t>Mark bookcategory as deleted</t>
+  </si>
+  <si>
+    <t>Mark book deleted</t>
+  </si>
+  <si>
+    <t>Send mail to admin about deletion</t>
+  </si>
+  <si>
+    <t>Mark transactions and messages deleted - if they exist</t>
   </si>
 </sst>
 </file>
@@ -2884,8 +2948,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:AT59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="O59" sqref="O59"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="K62" sqref="K62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4612,12 +4676,145 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1" ht="18.75">
+      <c r="A1" s="22" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="18.75">
+      <c r="A5" s="22" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="18.75">
+      <c r="A9" s="22" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" ht="18.75">
+      <c r="A12" s="22" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>118</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="4.5703125" customWidth="1"/>
+    <col min="2" max="2" width="5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="18.75">
+      <c r="A1" s="22" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="B3" s="21"/>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="B4" s="21"/>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="B5" s="21"/>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="B6" s="21"/>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="21"/>
+      <c r="B7" s="21" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="B8" s="21" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="B9" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="C10" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="C11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="B12" t="s">
+        <v>128</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/devNotes/mockUps.xlsx
+++ b/devNotes/mockUps.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="30" windowWidth="15270" windowHeight="5685" tabRatio="347" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="120" yWindow="30" windowWidth="15270" windowHeight="5685" tabRatio="347" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="ResetPassword" sheetId="1" r:id="rId1"/>
     <sheet name="Add Books" sheetId="2" r:id="rId2"/>
     <sheet name="Admin Tasks" sheetId="3" r:id="rId3"/>
     <sheet name="Delete Book" sheetId="4" r:id="rId4"/>
+    <sheet name="Blog" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="162">
   <si>
     <t>User Forgot Password</t>
   </si>
@@ -431,12 +432,108 @@
   <si>
     <t>Mark transactions and messages deleted - if they exist</t>
   </si>
+  <si>
+    <t>BLOG</t>
+  </si>
+  <si>
+    <t>Blog Main Page</t>
+  </si>
+  <si>
+    <t>Blog Post Page</t>
+  </si>
+  <si>
+    <t>Blog Static Page - also a post page, marked as static</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Categories</t>
+  </si>
+  <si>
+    <t>Menu</t>
+  </si>
+  <si>
+    <t>POST DATA</t>
+  </si>
+  <si>
+    <t>SubTitle</t>
+  </si>
+  <si>
+    <t>Slug</t>
+  </si>
+  <si>
+    <t>Body</t>
+  </si>
+  <si>
+    <t>POST CATEGORY</t>
+  </si>
+  <si>
+    <t>Post ID</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>(Published / Draft)</t>
+  </si>
+  <si>
+    <t>Date Published</t>
+  </si>
+  <si>
+    <t>POST COMMENT</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>(Static / Post)</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Website</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>Find about Gravatar</t>
+  </si>
+  <si>
+    <t>Datetime</t>
+  </si>
+  <si>
+    <t>MeULib UserID</t>
+  </si>
+  <si>
+    <t>AUTHOR</t>
+  </si>
+  <si>
+    <t>Author ID</t>
+  </si>
+  <si>
+    <t>About</t>
+  </si>
+  <si>
+    <t>Social Media Link</t>
+  </si>
+  <si>
+    <t>Excerpt</t>
+  </si>
+  <si>
+    <t>CategorySlug</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -486,6 +583,15 @@
     <font>
       <sz val="11"/>
       <color theme="6" tint="0.59999389629810485"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -735,7 +841,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -789,6 +895,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4743,7 +4850,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
@@ -4817,4 +4924,175 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:P17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="8" max="8" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16">
+      <c r="A1" s="47" t="s">
+        <v>130</v>
+      </c>
+      <c r="G1" s="47" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="G2" t="s">
+        <v>142</v>
+      </c>
+      <c r="H2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I2" t="s">
+        <v>138</v>
+      </c>
+      <c r="J2" t="s">
+        <v>139</v>
+      </c>
+      <c r="K2" t="s">
+        <v>140</v>
+      </c>
+      <c r="L2" t="s">
+        <v>160</v>
+      </c>
+      <c r="M2" t="s">
+        <v>143</v>
+      </c>
+      <c r="N2" t="s">
+        <v>147</v>
+      </c>
+      <c r="O2" t="s">
+        <v>145</v>
+      </c>
+      <c r="P2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" t="s">
+        <v>131</v>
+      </c>
+      <c r="M3" t="s">
+        <v>144</v>
+      </c>
+      <c r="N3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" t="s">
+        <v>132</v>
+      </c>
+      <c r="G4" s="47" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" t="s">
+        <v>133</v>
+      </c>
+      <c r="G5" t="s">
+        <v>142</v>
+      </c>
+      <c r="H5" t="s">
+        <v>88</v>
+      </c>
+      <c r="I5" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" t="s">
+        <v>135</v>
+      </c>
+      <c r="G7" s="47" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" t="s">
+        <v>136</v>
+      </c>
+      <c r="G8" t="s">
+        <v>142</v>
+      </c>
+      <c r="H8" t="s">
+        <v>155</v>
+      </c>
+      <c r="I8" t="s">
+        <v>149</v>
+      </c>
+      <c r="J8" t="s">
+        <v>150</v>
+      </c>
+      <c r="K8" t="s">
+        <v>151</v>
+      </c>
+      <c r="L8" t="s">
+        <v>152</v>
+      </c>
+      <c r="M8" t="s">
+        <v>154</v>
+      </c>
+      <c r="N8" s="20" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="G10" s="47" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="G11" t="s">
+        <v>157</v>
+      </c>
+      <c r="H11" t="s">
+        <v>155</v>
+      </c>
+      <c r="I11" t="s">
+        <v>149</v>
+      </c>
+      <c r="J11" t="s">
+        <v>150</v>
+      </c>
+      <c r="K11" t="s">
+        <v>151</v>
+      </c>
+      <c r="L11" t="s">
+        <v>159</v>
+      </c>
+      <c r="M11" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="17" spans="7:7">
+      <c r="G17" s="47"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/devNotes/mockUps.xlsx
+++ b/devNotes/mockUps.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="30" windowWidth="15270" windowHeight="5685" tabRatio="347" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="120" yWindow="30" windowWidth="15270" windowHeight="5685" tabRatio="347" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="ResetPassword" sheetId="1" r:id="rId1"/>
@@ -12,13 +12,14 @@
     <sheet name="Admin Tasks" sheetId="3" r:id="rId3"/>
     <sheet name="Delete Book" sheetId="4" r:id="rId4"/>
     <sheet name="Blog" sheetId="5" r:id="rId5"/>
+    <sheet name="Ways To Borrow" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="176">
   <si>
     <t>User Forgot Password</t>
   </si>
@@ -528,12 +529,54 @@
   <si>
     <t>CategorySlug</t>
   </si>
+  <si>
+    <t>Library Name</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Within City</t>
+  </si>
+  <si>
+    <t>Within Country</t>
+  </si>
+  <si>
+    <t>International</t>
+  </si>
+  <si>
+    <t>Meet In Person</t>
+  </si>
+  <si>
+    <t>Ways to Borrow / Take Away</t>
+  </si>
+  <si>
+    <t>I can deliver</t>
+  </si>
+  <si>
+    <t>You can have it collected</t>
+  </si>
+  <si>
+    <t>I will post</t>
+  </si>
+  <si>
+    <t>You post back</t>
+  </si>
+  <si>
+    <t>I will post books for give away</t>
+  </si>
+  <si>
+    <t>You pay for shipping</t>
+  </si>
+  <si>
+    <t>Find out postage costs</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -592,6 +635,14 @@
       <u/>
       <sz val="11"/>
       <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -841,7 +892,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -896,6 +947,15 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4930,7 +4990,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
@@ -5095,4 +5155,87 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="F2:J12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="5" max="11" width="15.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="6:10" ht="21">
+      <c r="H2" s="49" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3" spans="6:10">
+      <c r="H3" s="48" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="5" spans="6:10">
+      <c r="H5" s="50" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="6" spans="6:10">
+      <c r="H6" s="48"/>
+    </row>
+    <row r="7" spans="6:10">
+      <c r="F7" s="50" t="s">
+        <v>164</v>
+      </c>
+      <c r="H7" s="50" t="s">
+        <v>165</v>
+      </c>
+      <c r="J7" s="50" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="8" spans="6:10">
+      <c r="F8" s="48" t="s">
+        <v>167</v>
+      </c>
+      <c r="H8" s="48" t="s">
+        <v>171</v>
+      </c>
+      <c r="J8" s="48" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="9" spans="6:10">
+      <c r="F9" s="48" t="s">
+        <v>169</v>
+      </c>
+      <c r="H9" s="48" t="s">
+        <v>172</v>
+      </c>
+      <c r="J9" s="48" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="10" spans="6:10">
+      <c r="F10" s="48" t="s">
+        <v>170</v>
+      </c>
+      <c r="H10" s="48" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="12" spans="6:10">
+      <c r="H12" s="48" t="s">
+        <v>175</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/devNotes/mockUps.xlsx
+++ b/devNotes/mockUps.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="30" windowWidth="15270" windowHeight="5685" tabRatio="347" firstSheet="2" activeTab="5"/>
+    <workbookView xWindow="120" yWindow="30" windowWidth="15270" windowHeight="5685" tabRatio="387" firstSheet="4" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="ResetPassword" sheetId="1" r:id="rId1"/>
@@ -13,13 +13,15 @@
     <sheet name="Delete Book" sheetId="4" r:id="rId4"/>
     <sheet name="Blog" sheetId="5" r:id="rId5"/>
     <sheet name="Ways To Borrow" sheetId="6" r:id="rId6"/>
+    <sheet name="Transaction Reminder" sheetId="7" r:id="rId7"/>
+    <sheet name="Delivery Service" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="203">
   <si>
     <t>User Forgot Password</t>
   </si>
@@ -571,12 +573,96 @@
   <si>
     <t>Find out postage costs</t>
   </si>
+  <si>
+    <t>Transaction Reminder</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>TransactionID</t>
+  </si>
+  <si>
+    <t>ReminderType</t>
+  </si>
+  <si>
+    <t>ReminderSentDate</t>
+  </si>
+  <si>
+    <t>CheckIfAnyReminderToBeSent</t>
+  </si>
+  <si>
+    <t>SendReminder</t>
+  </si>
+  <si>
+    <t>If Yes</t>
+  </si>
+  <si>
+    <t>This depends on the status of the transaction</t>
+  </si>
+  <si>
+    <t>Status-ReminderPeriodSetting</t>
+  </si>
+  <si>
+    <t>Get ActiveTransactions with their Status and last reminder sent from reminder table</t>
+  </si>
+  <si>
+    <t>Find if any record is more than ReminderPeriodSetting</t>
+  </si>
+  <si>
+    <t>Do this only for return reminders right now</t>
+  </si>
+  <si>
+    <t>SendReturnReminder</t>
+  </si>
+  <si>
+    <t>Write to owner - should system send a reminder - as owner to send a message</t>
+  </si>
+  <si>
+    <t>If system should send a reminder</t>
+  </si>
+  <si>
+    <t>SendReturnReminderToLender</t>
+  </si>
+  <si>
+    <t>If owner sends a message</t>
+  </si>
+  <si>
+    <t>Update reminder table</t>
+  </si>
+  <si>
+    <t>SELECT ID,`ItemID`,`Status`,`updated_at`, datediff(now(),`updated_at`) as DaysPassed FROM `olx_transactions_active` WHERE `Status` = 2 order by DaysPassed DESC</t>
+  </si>
+  <si>
+    <t>more work needed to be done on this query</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Delivery service available within Kolkata. </t>
+  </si>
+  <si>
+    <t>Do you want the book delivered to you?</t>
+  </si>
+  <si>
+    <t>Yes (Rs. Xx delivery charge. Payment: Cash on delivery)</t>
+  </si>
+  <si>
+    <t>No, I want to collect it from the owner myself.</t>
+  </si>
+  <si>
+    <t>Message to owner</t>
+  </si>
+  <si>
+    <t>Hi, 
+I would like to borrow your book 'Brave New World'.
+I am in xxlocation too. Please let me know when and where I can come to borrow the book from you.
+Thank you!</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -642,6 +728,14 @@
     <font>
       <b/>
       <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -892,7 +986,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -955,6 +1049,10 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5161,7 +5259,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="F2:J12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
@@ -5238,4 +5336,170 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="D2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>177</v>
+      </c>
+      <c r="E3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="18.75">
+      <c r="A5" t="s">
+        <v>180</v>
+      </c>
+      <c r="D5" s="51" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>179</v>
+      </c>
+      <c r="D6" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="D7" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="D8" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="E9" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="E10" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="D11" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="D12" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="18.75">
+      <c r="D14" s="51" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="D15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="D16" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="17" spans="4:5">
+      <c r="E17" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="18" spans="4:5">
+      <c r="D18" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="19" spans="4:5">
+      <c r="E19" t="s">
+        <v>194</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:A7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="73.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="75">
+      <c r="A7" s="52" t="s">
+        <v>202</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>